--- a/va_facility_data_2025-02-20/Georgetown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Georgetown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Georgetown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Georgetown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9f4abe11955d408bb55bc5dae20b094d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R434a88fa0e004b30aed7cc615f943d10"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R92c7bce396684d4fbc46a2abe459809d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7bf5a2c9a5634627a4fcc82e34fb0595"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f5635d658564c7f8d68871a561bde14"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf5b99df8f8a7495da36ad14790990cf9"/>
   </x:sheets>
 </x:workbook>
 </file>
